--- a/designmanual/Webravo Scrum Burndown.xlsx
+++ b/designmanual/Webravo Scrum Burndown.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/webravo/designmanual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D2B70C-2D2D-1F4D-8345-61EA790101DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4BFC45-7918-1D45-86B2-9642A4568A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="480" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Instructions" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 1 Example" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 1 Example" sheetId="2" r:id="rId1"/>
+    <sheet name="Instructions" sheetId="1" r:id="rId2"/>
     <sheet name="Sprint 1 Example (with Hrs Burn" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
   <si>
     <t>Sprint Burn Down Templates</t>
   </si>
@@ -64,6 +64,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>white cells</t>
     </r>
@@ -72,6 +73,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -80,6 +82,7 @@
         <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">don't delete rows or the calcs in the grey or coloured cells!
 </t>
@@ -89,6 +92,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> •  By entering data in the input grids, the charts will just happen
 </t>
@@ -98,6 +102,7 @@
         <i/>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> •  Even if you don't use all of the Cumulative flow, keep track of stories completed in the "Done" row</t>
     </r>
@@ -265,17 +270,20 @@
     <t>Stories done</t>
   </si>
   <si>
-    <t>out of</t>
+    <t>of</t>
   </si>
   <si>
-    <t>of</t>
+    <t>Out of</t>
+  </si>
+  <si>
+    <t>Webravo Burn Chart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -284,64 +292,77 @@
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="7"/>
       <color rgb="FF999999"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FFCCCCCC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="48"/>
@@ -400,8 +421,34 @@
       <sz val="12"/>
       <name val="Oswald Regular"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="48"/>
+      <color theme="9"/>
+      <name val="Oswald Regular"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Oswald Regular"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Oswald Regular"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color rgb="FF000000"/>
+      <name val="Oswald Regular"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,18 +481,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -460,6 +495,30 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFD9D9D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -730,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -902,191 +961,203 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="18" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1135,6 +1206,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF3F3F3"/>
       <color rgb="FF999999"/>
     </mruColors>
   </colors>
@@ -1199,7 +1271,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1 Example'!$B$8</c:f>
+              <c:f>'Sprint 1 Example'!$B$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1221,7 +1293,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 1 Example'!$C$7:$L$7</c:f>
+              <c:f>'Sprint 1 Example'!$C$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1245,7 +1317,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1 Example'!$C$8:$L$8</c:f>
+              <c:f>'Sprint 1 Example'!$C$10:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1294,7 +1366,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1 Example'!$B$9</c:f>
+              <c:f>'Sprint 1 Example'!$B$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1315,7 +1387,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 1 Example'!$C$7:$L$7</c:f>
+              <c:f>'Sprint 1 Example'!$C$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1339,7 +1411,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1 Example'!$C$9:$L$9</c:f>
+              <c:f>'Sprint 1 Example'!$C$11:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1388,7 +1460,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1 Example'!$B$12</c:f>
+              <c:f>'Sprint 1 Example'!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1420,7 +1492,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 1 Example'!$C$7:$L$7</c:f>
+              <c:f>'Sprint 1 Example'!$C$9:$L$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1444,7 +1516,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1 Example'!$C$12:$L$12</c:f>
+              <c:f>'Sprint 1 Example'!$C$14:$L$14</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1715,7 +1787,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1 Example'!$B$15</c:f>
+              <c:f>'Sprint 1 Example'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1738,7 +1810,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 1 Example'!$C$14:$L$14</c:f>
+              <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1749,7 +1821,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1 Example'!$C$15:$L$15</c:f>
+              <c:f>'Sprint 1 Example'!$C$17:$L$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1770,7 +1842,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1 Example'!$B$16</c:f>
+              <c:f>'Sprint 1 Example'!$B$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1793,7 +1865,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 1 Example'!$C$14:$L$14</c:f>
+              <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1804,7 +1876,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
+              <c:f>'Sprint 1 Example'!$C$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1825,7 +1897,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1 Example'!$B$17</c:f>
+              <c:f>'Sprint 1 Example'!$B$19</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1848,7 +1920,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>'Sprint 1 Example'!$C$14:$L$14</c:f>
+              <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1859,7 +1931,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1 Example'!$C$17:$L$17</c:f>
+              <c:f>'Sprint 1 Example'!$C$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3564,7 +3636,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>88195</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>194027</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5245805" cy="2171700"/>
@@ -3595,7 +3667,7 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>70556</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5250743" cy="2209800"/>
@@ -4019,6 +4091,942 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Q31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="3" max="12" width="4.5" customWidth="1"/>
+    <col min="13" max="13" width="5" customWidth="1"/>
+    <col min="14" max="14" width="81.6640625" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
+    <col min="16" max="16" width="8.6640625" customWidth="1"/>
+    <col min="17" max="17" width="3.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="12.75" customHeight="1">
+      <c r="A1" s="121"/>
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+    </row>
+    <row r="2" spans="1:17" ht="62" customHeight="1">
+      <c r="A2" s="121"/>
+      <c r="B2" s="122" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="122"/>
+      <c r="I2" s="122"/>
+      <c r="J2" s="122"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
+      <c r="P2" s="121"/>
+      <c r="Q2" s="121"/>
+    </row>
+    <row r="3" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A4" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="58">
+        <v>5</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A5" s="15"/>
+      <c r="B5" s="59" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="60">
+        <v>103</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="104" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="80"/>
+    </row>
+    <row r="6" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A6" s="16"/>
+      <c r="B6" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="62">
+        <v>33</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="107"/>
+      <c r="Q6" s="81"/>
+    </row>
+    <row r="7" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="91">
+        <f>MAX(C16:L16)</f>
+        <v>1</v>
+      </c>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="81"/>
+    </row>
+    <row r="8" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="86">
+        <f>C4</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A9" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="64">
+        <v>1</v>
+      </c>
+      <c r="D9" s="64">
+        <v>2</v>
+      </c>
+      <c r="E9" s="64">
+        <v>3</v>
+      </c>
+      <c r="F9" s="64">
+        <v>4</v>
+      </c>
+      <c r="G9" s="64">
+        <v>5</v>
+      </c>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="81"/>
+    </row>
+    <row r="10" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A10" s="16"/>
+      <c r="B10" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="77">
+        <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
+        <v>72</v>
+      </c>
+      <c r="D10" s="77">
+        <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
+        <v>144</v>
+      </c>
+      <c r="E10" s="77">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="F10" s="77">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="G10" s="77">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="H10" s="77" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I10" s="77" t="e">
+        <f>IF(LEN(I9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*I9,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J10" s="77" t="e">
+        <f t="shared" ref="J10" si="1">IF(LEN(J9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*J9,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="K10" s="77" t="e">
+        <f>IF(LEN(K9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*K9,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L10" s="77" t="e">
+        <f>IF(LEN(L9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*L9,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="87" t="s">
+        <v>36</v>
+      </c>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="80"/>
+    </row>
+    <row r="11" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A11" s="16"/>
+      <c r="B11" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="77">
+        <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
+        <v>20.6</v>
+      </c>
+      <c r="D11" s="77">
+        <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
+        <v>41.2</v>
+      </c>
+      <c r="E11" s="77">
+        <f t="shared" si="2"/>
+        <v>61.800000000000004</v>
+      </c>
+      <c r="F11" s="77">
+        <f t="shared" si="2"/>
+        <v>82.4</v>
+      </c>
+      <c r="G11" s="77">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="H11" s="77" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="I11" s="77" t="e">
+        <f t="shared" ref="I11:J11" si="3">IF(LEN(I9)&gt;0,($C$5/MAX($C9:$L9))*I9,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J11" s="77" t="e">
+        <f t="shared" si="3"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K11" s="77" t="e">
+        <f>IF(LEN(K9)&gt;0,($C$5/MAX($C9:$L9))*K9,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L11" s="77" t="e">
+        <f>IF(LEN(L9)&gt;0,($C$5/MAX($C9:$L9))*L9,NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="88"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="81"/>
+    </row>
+    <row r="12" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A12" s="16"/>
+      <c r="B12" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="77">
+        <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
+        <v>31</v>
+      </c>
+      <c r="D12" s="77">
+        <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
+        <v>31</v>
+      </c>
+      <c r="E12" s="77">
+        <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
+        <v>31</v>
+      </c>
+      <c r="F12" s="77">
+        <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
+        <v>31</v>
+      </c>
+      <c r="G12" s="77">
+        <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
+        <v>31</v>
+      </c>
+      <c r="H12" s="77" t="e">
+        <f t="shared" ref="H12" si="8">IF(H9&gt;0,IF(H13=0,G12,$C5-H14),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I12" s="77" t="e">
+        <f t="shared" ref="I12:J12" si="9">IF(I9&gt;0,IF(I13=0,H12,$C5-I14),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J12" s="77" t="e">
+        <f t="shared" si="9"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K12" s="77" t="e">
+        <f>IF(K9&gt;0,IF(K13=0,J12,$C5-K14),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L12" s="77" t="e">
+        <f>IF(L9&gt;0,IF(L13=0,K12,$C5-L14),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="111">
+        <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
+        <v>72</v>
+      </c>
+      <c r="P12" s="119" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q12" s="81"/>
+    </row>
+    <row r="13" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A13" s="16"/>
+      <c r="B13" s="109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="110">
+        <v>72</v>
+      </c>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="118">
+        <f>C5</f>
+        <v>103</v>
+      </c>
+      <c r="Q13" s="81"/>
+    </row>
+    <row r="14" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A14" s="16"/>
+      <c r="B14" s="67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="108">
+        <f>IF(LEN(C9)&gt;0,C13,"")</f>
+        <v>72</v>
+      </c>
+      <c r="D14" s="108" t="e">
+        <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E14" s="108" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="F14" s="108" t="e">
+        <f t="shared" si="10"/>
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="108" t="e">
+        <f>IF(LEN(G13)&gt;0,IF(LEN(G9)&gt;0,F14+G13,NA()),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H14" s="108" t="e">
+        <f t="shared" ref="H14:L14" si="11">IF(LEN(H13)&gt;0,IF(LEN(H9)&gt;0,G14+H13,NA()),NA())</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I14" s="108" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J14" s="108" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K14" s="108" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="L14" s="108" t="e">
+        <f t="shared" si="11"/>
+        <v>#N/A</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="120"/>
+      <c r="Q14" s="82"/>
+    </row>
+    <row r="15" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A15" s="16"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+    </row>
+    <row r="16" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A16" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="70">
+        <f>IF(SUM(C17:C24)&gt;0,C9,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70" t="str">
+        <f t="shared" ref="E16:L16" si="12">IF(SUM(E17:E24)&gt;0,E9,"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="G16" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="H16" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="I16" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="J16" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="K16" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="L16" s="71" t="str">
+        <f t="shared" si="12"/>
+        <v/>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="92" t="s">
+        <v>56</v>
+      </c>
+      <c r="P16" s="93"/>
+      <c r="Q16" s="19"/>
+    </row>
+    <row r="17" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="78">
+        <v>26</v>
+      </c>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="94"/>
+      <c r="P17" s="95"/>
+      <c r="Q17" s="19"/>
+    </row>
+    <row r="18" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A18" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="78">
+        <v>1</v>
+      </c>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="78"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="113">
+        <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
+        <v>26</v>
+      </c>
+      <c r="P18" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q18" s="19"/>
+    </row>
+    <row r="19" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A19" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="73">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="78">
+        <v>4</v>
+      </c>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="78"/>
+      <c r="I19" s="78"/>
+      <c r="J19" s="78"/>
+      <c r="K19" s="78"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="116">
+        <f>C6</f>
+        <v>33</v>
+      </c>
+      <c r="Q19" s="19"/>
+    </row>
+    <row r="20" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A20" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="72"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
+      <c r="E20" s="78"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="19"/>
+    </row>
+    <row r="21" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A21" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="72"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
+      <c r="J21" s="78"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="100" t="s">
+        <v>40</v>
+      </c>
+      <c r="P21" s="101"/>
+      <c r="Q21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A22" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="72"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="19"/>
+    </row>
+    <row r="23" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A23" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="78"/>
+      <c r="H23" s="78"/>
+      <c r="I23" s="78"/>
+      <c r="J23" s="78"/>
+      <c r="K23" s="78"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="96">
+        <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="19"/>
+    </row>
+    <row r="24" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="78">
+        <v>2</v>
+      </c>
+      <c r="D24" s="78"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="78"/>
+      <c r="H24" s="78"/>
+      <c r="I24" s="78"/>
+      <c r="J24" s="78"/>
+      <c r="K24" s="78"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="19"/>
+    </row>
+    <row r="25" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
+      <c r="A25" s="16"/>
+      <c r="B25" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="75">
+        <f t="shared" ref="C25:L25" si="13">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="75" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="E25" s="75" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="F25" s="75" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="G25" s="75" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="H25" s="75" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="I25" s="75" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="J25" s="75" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="K25" s="75" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="L25" s="76" t="str">
+        <f t="shared" si="13"/>
+        <v/>
+      </c>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="99"/>
+      <c r="Q25" s="19"/>
+    </row>
+    <row r="26" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+    </row>
+    <row r="27" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="19"/>
+    </row>
+    <row r="28" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="42"/>
+      <c r="Q28" s="19"/>
+    </row>
+    <row r="29" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+    </row>
+    <row r="30" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+    </row>
+    <row r="31" spans="1:17" ht="17.25" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="23"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="O16:P17"/>
+    <mergeCell ref="O23:P25"/>
+    <mergeCell ref="O21:P22"/>
+    <mergeCell ref="O5:P6"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="O10:O11"/>
+    <mergeCell ref="P10:P11"/>
+    <mergeCell ref="O12:O14"/>
+    <mergeCell ref="O7:O9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B9:L9 B16:L16">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
+      <formula>LEN(TRIM(B9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:L12">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(B10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -4277,896 +5285,6 @@
     <hyperlink ref="B33" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:Q29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="12.6640625" customWidth="1"/>
-    <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="12" width="4.5" customWidth="1"/>
-    <col min="13" max="13" width="5" customWidth="1"/>
-    <col min="14" max="14" width="81.6640625" customWidth="1"/>
-    <col min="15" max="15" width="11" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="3.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="19"/>
-    </row>
-    <row r="2" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A2" s="85" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="73" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="74">
-        <v>5</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="22"/>
-    </row>
-    <row r="3" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A3" s="15"/>
-      <c r="B3" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="76">
-        <v>103</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="99" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="100"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A4" s="16"/>
-      <c r="B4" s="77" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="78">
-        <v>33</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="101"/>
-      <c r="P4" s="105"/>
-      <c r="Q4" s="102"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="103">
-        <f>MAX(C14:L14)</f>
-        <v>1</v>
-      </c>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="102"/>
-    </row>
-    <row r="6" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="107" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q6" s="110">
-        <f>C2</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A7" s="85" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="79" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="80">
-        <v>1</v>
-      </c>
-      <c r="D7" s="80">
-        <v>2</v>
-      </c>
-      <c r="E7" s="80">
-        <v>3</v>
-      </c>
-      <c r="F7" s="80">
-        <v>4</v>
-      </c>
-      <c r="G7" s="80">
-        <v>5</v>
-      </c>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="81"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="103"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="102"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="82" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="94">
-        <f>IF(LEN(C7)&gt;0,(LOOKUP(9.99999999999999E+307,$C12:$L12))/(COUNT($C$12:$L$12))*C7,"")</f>
-        <v>72</v>
-      </c>
-      <c r="D8" s="94">
-        <f t="shared" ref="D8:H8" si="0">IF(LEN(D7)&gt;0,(LOOKUP(9.99999999999999E+307,$C12:$L12))/(COUNT($C$12:$L$12))*D7,NA())</f>
-        <v>144</v>
-      </c>
-      <c r="E8" s="94">
-        <f t="shared" si="0"/>
-        <v>216</v>
-      </c>
-      <c r="F8" s="94">
-        <f t="shared" si="0"/>
-        <v>288</v>
-      </c>
-      <c r="G8" s="94">
-        <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="H8" s="94" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I8" s="94" t="e">
-        <f>IF(LEN(I7)&gt;0,(LOOKUP(9.99999999999999E+307,$C12:$L12))/(COUNT($C$12:$L$12))*I7,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J8" s="94" t="e">
-        <f t="shared" ref="H8:J8" si="1">IF(LEN(J7)&gt;0,(LOOKUP(9.99999999999999E+307,$C12:$L12))/(COUNT($C$12:$L$12))*J7,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="K8" s="94" t="e">
-        <f>IF(LEN(K7)&gt;0,(LOOKUP(9.99999999999999E+307,$C12:$L12))/(COUNT($C$12:$L$12))*K7,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L8" s="94" t="e">
-        <f>IF(LEN(L7)&gt;0,(LOOKUP(9.99999999999999E+307,$C12:$L12))/(COUNT($C$12:$L$12))*L7,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="P8" s="112" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q8" s="100"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="82" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="94">
-        <f>IF(LEN(C7)&gt;0,($C$3/MAX($C7:$L7))*C7,"")</f>
-        <v>20.6</v>
-      </c>
-      <c r="D9" s="94">
-        <f t="shared" ref="D9:H9" si="2">IF(LEN(D7)&gt;0,($C$3/MAX($C7:$L7))*D7,NA())</f>
-        <v>41.2</v>
-      </c>
-      <c r="E9" s="94">
-        <f t="shared" si="2"/>
-        <v>61.800000000000004</v>
-      </c>
-      <c r="F9" s="94">
-        <f t="shared" si="2"/>
-        <v>82.4</v>
-      </c>
-      <c r="G9" s="94">
-        <f t="shared" si="2"/>
-        <v>103</v>
-      </c>
-      <c r="H9" s="94" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="I9" s="94" t="e">
-        <f t="shared" ref="H9:J9" si="3">IF(LEN(I7)&gt;0,($C$3/MAX($C7:$L7))*I7,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J9" s="94" t="e">
-        <f t="shared" si="3"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K9" s="94" t="e">
-        <f>IF(LEN(K7)&gt;0,($C$3/MAX($C7:$L7))*K7,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L9" s="94" t="e">
-        <f>IF(LEN(L7)&gt;0,($C$3/MAX($C7:$L7))*L7,NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="113"/>
-      <c r="P9" s="114"/>
-      <c r="Q9" s="102"/>
-    </row>
-    <row r="10" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="82" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="94">
-        <f>IF(LEN(C7)&gt;0,IF(C11=0,C3,C3-C12),"")</f>
-        <v>31</v>
-      </c>
-      <c r="D10" s="94">
-        <f t="shared" ref="D10" si="4">IF(D7&gt;0,IF(D11=0,C10,$C3-D12),NA())</f>
-        <v>31</v>
-      </c>
-      <c r="E10" s="94">
-        <f t="shared" ref="E10" si="5">IF(E7&gt;0,IF(E11=0,D10,$C3-E12),NA())</f>
-        <v>31</v>
-      </c>
-      <c r="F10" s="94">
-        <f t="shared" ref="F10" si="6">IF(F7&gt;0,IF(F11=0,E10,$C3-F12),NA())</f>
-        <v>31</v>
-      </c>
-      <c r="G10" s="94">
-        <f t="shared" ref="G10" si="7">IF(G7&gt;0,IF(G11=0,F10,$C3-G12),NA())</f>
-        <v>31</v>
-      </c>
-      <c r="H10" s="94" t="e">
-        <f t="shared" ref="H10" si="8">IF(H7&gt;0,IF(H11=0,G10,$C3-H12),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I10" s="94" t="e">
-        <f t="shared" ref="H10:J10" si="9">IF(I7&gt;0,IF(I11=0,H10,$C3-I12),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J10" s="94" t="e">
-        <f t="shared" si="9"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K10" s="94" t="e">
-        <f>IF(K7&gt;0,IF(K11=0,J10,$C3-K12),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="L10" s="94" t="e">
-        <f>IF(L7&gt;0,IF(L11=0,K10,$C3-L12),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="115">
-        <f>LOOKUP(9.99999999999999E+307,$C12:$L12)</f>
-        <v>72</v>
-      </c>
-      <c r="P10" s="116">
-        <f>C3</f>
-        <v>103</v>
-      </c>
-      <c r="Q10" s="102"/>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="83" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="95">
-        <v>72</v>
-      </c>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="115"/>
-      <c r="P11" s="116"/>
-      <c r="Q11" s="102"/>
-    </row>
-    <row r="12" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="96">
-        <f>IF(LEN(C7)&gt;0,C11,"")</f>
-        <v>72</v>
-      </c>
-      <c r="D12" s="96" t="e">
-        <f t="shared" ref="D12:F12" si="10">IF(LEN(D11)&gt;0,IF(LEN(D7)&gt;0,C12+D11,NA()),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="E12" s="96" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F12" s="96" t="e">
-        <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G12" s="96" t="e">
-        <f>IF(LEN(G11)&gt;0,IF(LEN(G7)&gt;0,F12+G11,NA()),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H12" s="96" t="e">
-        <f t="shared" ref="H12:L12" si="11">IF(LEN(H11)&gt;0,IF(LEN(H7)&gt;0,G12+H11,NA()),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="I12" s="96" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J12" s="96" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K12" s="96" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="L12" s="96" t="e">
-        <f t="shared" si="11"/>
-        <v>#N/A</v>
-      </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="118"/>
-      <c r="Q12" s="104"/>
-    </row>
-    <row r="13" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="85"/>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-    </row>
-    <row r="14" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A14" s="85" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="87">
-        <f>IF(SUM(C15:C22)&gt;0,C7,"")</f>
-        <v>1</v>
-      </c>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87" t="str">
-        <f>IF(SUM(E15:E22)&gt;0,E7,"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="87" t="str">
-        <f>IF(SUM(F15:F22)&gt;0,F7,"")</f>
-        <v/>
-      </c>
-      <c r="G14" s="87" t="str">
-        <f>IF(SUM(G15:G22)&gt;0,G7,"")</f>
-        <v/>
-      </c>
-      <c r="H14" s="87" t="str">
-        <f>IF(SUM(H15:H22)&gt;0,H7,"")</f>
-        <v/>
-      </c>
-      <c r="I14" s="87" t="str">
-        <f>IF(SUM(I15:I22)&gt;0,I7,"")</f>
-        <v/>
-      </c>
-      <c r="J14" s="87" t="str">
-        <f>IF(SUM(J15:J22)&gt;0,J7,"")</f>
-        <v/>
-      </c>
-      <c r="K14" s="87" t="str">
-        <f>IF(SUM(K15:K22)&gt;0,K7,"")</f>
-        <v/>
-      </c>
-      <c r="L14" s="88" t="str">
-        <f>IF(SUM(L15:L22)&gt;0,L7,"")</f>
-        <v/>
-      </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="69" t="s">
-        <v>56</v>
-      </c>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="19"/>
-    </row>
-    <row r="15" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="89" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="97">
-        <v>26</v>
-      </c>
-      <c r="D15" s="97"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="97"/>
-      <c r="G15" s="97"/>
-      <c r="H15" s="97"/>
-      <c r="I15" s="97"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="97"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="19"/>
-    </row>
-    <row r="16" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A16" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="89" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="97">
-        <v>1</v>
-      </c>
-      <c r="D16" s="97"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="97"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="16"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="57">
-        <f>LOOKUP(9.99999999999999E+307,$C15:$L15)</f>
-        <v>26</v>
-      </c>
-      <c r="P16" s="58"/>
-      <c r="Q16" s="19"/>
-    </row>
-    <row r="17" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A17" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="90">
-        <v>0.5</v>
-      </c>
-      <c r="C17" s="97">
-        <v>4</v>
-      </c>
-      <c r="D17" s="97"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="97"/>
-      <c r="I17" s="97"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="97"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="16"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="58"/>
-      <c r="Q17" s="19"/>
-    </row>
-    <row r="18" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A18" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="97"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="97"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="97"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="16"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="60"/>
-      <c r="Q18" s="19"/>
-    </row>
-    <row r="19" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A19" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="97"/>
-      <c r="F19" s="97"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="97"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="97"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="19"/>
-    </row>
-    <row r="20" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A20" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="89"/>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="97"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="97"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="67"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="19"/>
-    </row>
-    <row r="21" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A21" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="97"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="61">
-        <f>(COUNTIFS(C14:L14,"&gt;0"))/O16</f>
-        <v>3.8461538461538464E-2</v>
-      </c>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="97">
-        <v>2</v>
-      </c>
-      <c r="D22" s="97"/>
-      <c r="E22" s="97"/>
-      <c r="F22" s="97"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="97"/>
-      <c r="I22" s="97"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="19"/>
-    </row>
-    <row r="23" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="92">
-        <f t="shared" ref="C23:L23" si="12">IF(SUM(C15:C22)&gt;0,SUM(C15:C22)-$C$4,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D23" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="E23" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="F23" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G23" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="H23" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="I23" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="J23" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="K23" s="92" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L23" s="93" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="M23" s="17"/>
-      <c r="N23" s="17"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="19"/>
-    </row>
-    <row r="24" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="17"/>
-      <c r="N24" s="17"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="19"/>
-      <c r="Q24" s="19"/>
-    </row>
-    <row r="25" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="17"/>
-      <c r="N25" s="17"/>
-      <c r="O25" s="34"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="19"/>
-    </row>
-    <row r="26" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="17"/>
-      <c r="N26" s="17"/>
-      <c r="O26" s="34"/>
-      <c r="P26" s="42"/>
-      <c r="Q26" s="19"/>
-    </row>
-    <row r="27" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-    </row>
-    <row r="28" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-    </row>
-    <row r="29" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A29" s="16"/>
-      <c r="B29" s="47"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="17"/>
-      <c r="N29" s="17"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="P8:P9"/>
-    <mergeCell ref="O10:O12"/>
-    <mergeCell ref="P10:P12"/>
-    <mergeCell ref="O5:O7"/>
-    <mergeCell ref="O16:P18"/>
-    <mergeCell ref="O14:P15"/>
-    <mergeCell ref="O21:P23"/>
-    <mergeCell ref="O19:P20"/>
-    <mergeCell ref="O3:P4"/>
-  </mergeCells>
-  <conditionalFormatting sqref="B7:L7 B14:L14">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="2">
-      <formula>LEN(TRIM(B7))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:L10">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(B8))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/designmanual/Webravo Scrum Burndown.xlsx
+++ b/designmanual/Webravo Scrum Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/webravo/designmanual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4BFC45-7918-1D45-86B2-9642A4568A8C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2395DC85-B213-5E40-91BF-4999224DF71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4094,11 +4094,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -5021,7 +5022,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/designmanual/Webravo Scrum Burndown.xlsx
+++ b/designmanual/Webravo Scrum Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/webravo/designmanual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2395DC85-B213-5E40-91BF-4999224DF71D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348B2BF-5264-9C49-9162-CE60238DDB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
   <si>
     <t>Sprint Burn Down Templates</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>Webravo Burn Chart</t>
+  </si>
+  <si>
+    <t>Hvis der er tid</t>
   </si>
 </sst>
 </file>
@@ -1322,19 +1325,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>144</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>216</c:v>
+                  <c:v>139.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>288</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>360</c:v>
+                  <c:v>232.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1416,19 +1419,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>20.6</c:v>
+                  <c:v>24.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41.2</c:v>
+                  <c:v>48.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>61.800000000000004</c:v>
+                  <c:v>73.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>82.4</c:v>
+                  <c:v>97.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>103</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1524,7 +1527,7 @@
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -1812,9 +1815,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1827,6 +1833,9 @@
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,9 +1876,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1882,6 +1894,9 @@
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1922,9 +1937,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1937,6 +1955,9 @@
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4099,7 +4120,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection sqref="A1:Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4206,7 +4227,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4233,7 +4254,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4269,7 +4290,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="91">
         <f>MAX(C16:L16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4338,23 +4359,23 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>72</v>
+        <v>46.5</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>144</v>
+        <v>93</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>139.5</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="G10" s="77">
         <f t="shared" si="0"/>
-        <v>360</v>
+        <v>232.5</v>
       </c>
       <c r="H10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4391,23 +4412,23 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>20.6</v>
+        <v>24.4</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>41.2</v>
+        <v>48.8</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>61.800000000000004</v>
+        <v>73.199999999999989</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>82.4</v>
+        <v>97.6</v>
       </c>
       <c r="G11" s="77">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="H11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4442,23 +4463,23 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" s="77">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H12" s="77" t="e">
         <f t="shared" ref="H12" si="8">IF(H9&gt;0,IF(H13=0,G12,$C5-H14),NA())</f>
@@ -4484,7 +4505,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="111">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="P12" s="119" t="s">
         <v>58</v>
@@ -4499,7 +4520,9 @@
       <c r="C13" s="110">
         <v>72</v>
       </c>
-      <c r="D13" s="110"/>
+      <c r="D13" s="110">
+        <v>21</v>
+      </c>
       <c r="E13" s="110"/>
       <c r="F13" s="110"/>
       <c r="G13" s="110"/>
@@ -4513,7 +4536,7 @@
       <c r="O13" s="111"/>
       <c r="P13" s="118">
         <f>C5</f>
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4526,9 +4549,9 @@
         <f>IF(LEN(C9)&gt;0,C13,"")</f>
         <v>72</v>
       </c>
-      <c r="D14" s="108" t="e">
+      <c r="D14" s="108">
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
-        <v>#N/A</v>
+        <v>93</v>
       </c>
       <c r="E14" s="108" t="e">
         <f t="shared" si="10"/>
@@ -4598,7 +4621,9 @@
         <f>IF(SUM(C17:C24)&gt;0,C9,"")</f>
         <v>1</v>
       </c>
-      <c r="D16" s="70"/>
+      <c r="D16" s="70">
+        <v>2</v>
+      </c>
       <c r="E16" s="70" t="str">
         <f t="shared" ref="E16:L16" si="12">IF(SUM(E17:E24)&gt;0,E9,"")</f>
         <v/>
@@ -4647,7 +4672,9 @@
       <c r="C17" s="78">
         <v>26</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="78">
+        <v>34</v>
+      </c>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
@@ -4672,7 +4699,9 @@
       <c r="C18" s="78">
         <v>1</v>
       </c>
-      <c r="D18" s="78"/>
+      <c r="D18" s="78">
+        <v>0</v>
+      </c>
       <c r="E18" s="78"/>
       <c r="F18" s="78"/>
       <c r="G18" s="78"/>
@@ -4685,7 +4714,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="113">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="P18" s="115" t="s">
         <v>58</v>
@@ -4702,7 +4731,9 @@
       <c r="C19" s="78">
         <v>4</v>
       </c>
-      <c r="D19" s="78"/>
+      <c r="D19" s="78">
+        <v>5</v>
+      </c>
       <c r="E19" s="78"/>
       <c r="F19" s="78"/>
       <c r="G19" s="78"/>
@@ -4716,7 +4747,7 @@
       <c r="O19" s="113"/>
       <c r="P19" s="116">
         <f>C6</f>
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4724,9 +4755,15 @@
       <c r="A20" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="72"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="B20" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="78">
+        <v>0</v>
+      </c>
+      <c r="D20" s="78">
+        <v>1</v>
+      </c>
       <c r="E20" s="78"/>
       <c r="F20" s="78"/>
       <c r="G20" s="78"/>
@@ -4804,7 +4841,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="96">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>3.8461538461538464E-2</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="P23" s="97"/>
       <c r="Q23" s="19"/>
@@ -4815,9 +4852,11 @@
         <v>43</v>
       </c>
       <c r="C24" s="78">
+        <v>11</v>
+      </c>
+      <c r="D24" s="78">
         <v>2</v>
       </c>
-      <c r="D24" s="78"/>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
@@ -4841,9 +4880,9 @@
         <f t="shared" ref="C25:L25" si="13">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
         <v>0</v>
       </c>
-      <c r="D25" s="75" t="str">
+      <c r="D25" s="75">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E25" s="75" t="str">
         <f t="shared" si="13"/>

--- a/designmanual/Webravo Scrum Burndown.xlsx
+++ b/designmanual/Webravo Scrum Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/webravo/designmanual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5348B2BF-5264-9C49-9162-CE60238DDB58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700AB84F-804F-4342-B124-151407EDB907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,11 +431,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="48"/>
-      <color theme="9"/>
-      <name val="Oswald Regular"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Oswald Regular"/>
@@ -448,6 +443,11 @@
     <font>
       <sz val="36"/>
       <color rgb="FF000000"/>
+      <name val="Oswald Regular"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="9"/>
       <name val="Oswald Regular"/>
     </font>
   </fonts>
@@ -1054,6 +1054,93 @@
     <xf numFmtId="0" fontId="25" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1069,98 +1156,11 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="7" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="15" fillId="7" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="19" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,19 +1325,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>46.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>93</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>139.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>186</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>232.5</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1530,13 +1530,13 @@
                   <c:v>93</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1815,12 +1815,15 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1836,6 +1839,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,12 +1882,15 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1896,6 +1905,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1937,12 +1949,15 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1958,6 +1973,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4119,8 +4137,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:Q29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4136,44 +4154,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="12.75" customHeight="1">
-      <c r="A1" s="121"/>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
+      <c r="A1" s="94"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
     </row>
     <row r="2" spans="1:17" ht="62" customHeight="1">
-      <c r="A2" s="121"/>
-      <c r="B2" s="122" t="s">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="122"/>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
     </row>
     <row r="3" spans="1:17" ht="17.25" customHeight="1">
       <c r="A3" s="16"/>
@@ -4242,10 +4260,10 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="17"/>
-      <c r="O5" s="104" t="s">
+      <c r="O5" s="108" t="s">
         <v>55</v>
       </c>
-      <c r="P5" s="105"/>
+      <c r="P5" s="109"/>
       <c r="Q5" s="80"/>
     </row>
     <row r="6" spans="1:17" ht="17.25" customHeight="1">
@@ -4254,7 +4272,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4269,8 +4287,8 @@
       <c r="L6" s="17"/>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="107"/>
+      <c r="O6" s="110"/>
+      <c r="P6" s="111"/>
       <c r="Q6" s="81"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1">
@@ -4288,9 +4306,9 @@
       <c r="L7" s="16"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="91">
+      <c r="O7" s="120">
         <f>MAX(C16:L16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4310,7 +4328,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="91"/>
+      <c r="O8" s="120"/>
       <c r="P8" s="84" t="s">
         <v>57</v>
       </c>
@@ -4348,7 +4366,7 @@
       <c r="L9" s="65"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="91"/>
+      <c r="O9" s="120"/>
       <c r="P9" s="85"/>
       <c r="Q9" s="81"/>
     </row>
@@ -4359,23 +4377,23 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>46.5</v>
+        <v>24</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>139.5</v>
+        <v>72</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>96</v>
       </c>
       <c r="G10" s="77">
         <f t="shared" si="0"/>
-        <v>232.5</v>
+        <v>120</v>
       </c>
       <c r="H10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4399,10 +4417,10 @@
       </c>
       <c r="M10" s="17"/>
       <c r="N10" s="17"/>
-      <c r="O10" s="87" t="s">
+      <c r="O10" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="P10" s="89"/>
+      <c r="P10" s="118"/>
       <c r="Q10" s="80"/>
     </row>
     <row r="11" spans="1:17" ht="17.25" customHeight="1">
@@ -4452,8 +4470,8 @@
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="17"/>
-      <c r="O11" s="88"/>
-      <c r="P11" s="90"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="119"/>
       <c r="Q11" s="81"/>
     </row>
     <row r="12" spans="1:17" ht="17.25" customHeight="1">
@@ -4471,15 +4489,15 @@
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G12" s="77">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H12" s="77" t="e">
         <f t="shared" ref="H12" si="8">IF(H9&gt;0,IF(H13=0,G12,$C5-H14),NA())</f>
@@ -4503,38 +4521,44 @@
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="111">
+      <c r="O12" s="121">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>93</v>
-      </c>
-      <c r="P12" s="119" t="s">
+        <v>120</v>
+      </c>
+      <c r="P12" s="92" t="s">
         <v>58</v>
       </c>
       <c r="Q12" s="81"/>
     </row>
     <row r="13" spans="1:17" ht="17.25" customHeight="1">
       <c r="A13" s="16"/>
-      <c r="B13" s="109" t="s">
+      <c r="B13" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="110">
+      <c r="C13" s="89">
         <v>72</v>
       </c>
-      <c r="D13" s="110">
+      <c r="D13" s="89">
         <v>21</v>
       </c>
-      <c r="E13" s="110"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="110"/>
-      <c r="K13" s="110"/>
-      <c r="L13" s="110"/>
+      <c r="E13" s="89">
+        <v>27</v>
+      </c>
+      <c r="F13" s="89">
+        <v>0</v>
+      </c>
+      <c r="G13" s="89">
+        <v>0</v>
+      </c>
+      <c r="H13" s="89"/>
+      <c r="I13" s="89"/>
+      <c r="J13" s="89"/>
+      <c r="K13" s="89"/>
+      <c r="L13" s="89"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="111"/>
-      <c r="P13" s="118">
+      <c r="O13" s="121"/>
+      <c r="P13" s="91">
         <f>C5</f>
         <v>122</v>
       </c>
@@ -4545,50 +4569,50 @@
       <c r="B14" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="87">
         <f>IF(LEN(C9)&gt;0,C13,"")</f>
         <v>72</v>
       </c>
-      <c r="D14" s="108">
+      <c r="D14" s="87">
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
         <v>93</v>
       </c>
-      <c r="E14" s="108" t="e">
+      <c r="E14" s="87">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="F14" s="108" t="e">
+        <v>120</v>
+      </c>
+      <c r="F14" s="87">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
-      </c>
-      <c r="G14" s="108" t="e">
+        <v>120</v>
+      </c>
+      <c r="G14" s="87">
         <f>IF(LEN(G13)&gt;0,IF(LEN(G9)&gt;0,F14+G13,NA()),NA())</f>
-        <v>#N/A</v>
-      </c>
-      <c r="H14" s="108" t="e">
+        <v>120</v>
+      </c>
+      <c r="H14" s="87" t="e">
         <f t="shared" ref="H14:L14" si="11">IF(LEN(H13)&gt;0,IF(LEN(H9)&gt;0,G14+H13,NA()),NA())</f>
         <v>#N/A</v>
       </c>
-      <c r="I14" s="108" t="e">
+      <c r="I14" s="87" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="J14" s="108" t="e">
+      <c r="J14" s="87" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="K14" s="108" t="e">
+      <c r="K14" s="87" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
-      <c r="L14" s="108" t="e">
+      <c r="L14" s="87" t="e">
         <f t="shared" si="11"/>
         <v>#N/A</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="120"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="93"/>
       <c r="Q14" s="82"/>
     </row>
     <row r="15" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
@@ -4624,12 +4648,11 @@
       <c r="D16" s="70">
         <v>2</v>
       </c>
-      <c r="E16" s="70" t="str">
-        <f t="shared" ref="E16:L16" si="12">IF(SUM(E17:E24)&gt;0,E9,"")</f>
-        <v/>
+      <c r="E16" s="70">
+        <v>3</v>
       </c>
       <c r="F16" s="70" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E16:L16" si="12">IF(SUM(F17:F24)&gt;0,F9,"")</f>
         <v/>
       </c>
       <c r="G16" s="70" t="str">
@@ -4658,10 +4681,10 @@
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="17"/>
-      <c r="O16" s="92" t="s">
+      <c r="O16" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="P16" s="93"/>
+      <c r="P16" s="97"/>
       <c r="Q16" s="19"/>
     </row>
     <row r="17" spans="1:17" ht="17.25" customHeight="1">
@@ -4675,7 +4698,9 @@
       <c r="D17" s="78">
         <v>34</v>
       </c>
-      <c r="E17" s="78"/>
+      <c r="E17" s="78">
+        <v>42</v>
+      </c>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -4685,8 +4710,8 @@
       <c r="L17" s="79"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="95"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="99"/>
       <c r="Q17" s="19"/>
     </row>
     <row r="18" spans="1:17" ht="17.25" customHeight="1">
@@ -4702,7 +4727,9 @@
       <c r="D18" s="78">
         <v>0</v>
       </c>
-      <c r="E18" s="78"/>
+      <c r="E18" s="78">
+        <v>0</v>
+      </c>
       <c r="F18" s="78"/>
       <c r="G18" s="78"/>
       <c r="H18" s="78"/>
@@ -4712,11 +4739,11 @@
       <c r="L18" s="79"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="113">
+      <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>34</v>
-      </c>
-      <c r="P18" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" s="90" t="s">
         <v>58</v>
       </c>
       <c r="Q18" s="19"/>
@@ -4734,7 +4761,9 @@
       <c r="D19" s="78">
         <v>5</v>
       </c>
-      <c r="E19" s="78"/>
+      <c r="E19" s="78">
+        <v>0</v>
+      </c>
       <c r="F19" s="78"/>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
@@ -4744,10 +4773,10 @@
       <c r="L19" s="79"/>
       <c r="M19" s="16"/>
       <c r="N19" s="16"/>
-      <c r="O19" s="113"/>
-      <c r="P19" s="116">
+      <c r="O19" s="112"/>
+      <c r="P19" s="114">
         <f>C6</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4764,7 +4793,9 @@
       <c r="D20" s="78">
         <v>1</v>
       </c>
-      <c r="E20" s="78"/>
+      <c r="E20" s="78">
+        <v>1</v>
+      </c>
       <c r="F20" s="78"/>
       <c r="G20" s="78"/>
       <c r="H20" s="78"/>
@@ -4774,8 +4805,8 @@
       <c r="L20" s="79"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="114"/>
-      <c r="P20" s="117"/>
+      <c r="O20" s="113"/>
+      <c r="P20" s="115"/>
       <c r="Q20" s="19"/>
     </row>
     <row r="21" spans="1:17" ht="17.25" customHeight="1">
@@ -4795,10 +4826,10 @@
       <c r="L21" s="79"/>
       <c r="M21" s="17"/>
       <c r="N21" s="17"/>
-      <c r="O21" s="100" t="s">
+      <c r="O21" s="104" t="s">
         <v>40</v>
       </c>
-      <c r="P21" s="101"/>
+      <c r="P21" s="105"/>
       <c r="Q21" s="19"/>
     </row>
     <row r="22" spans="1:17" ht="17.25" customHeight="1">
@@ -4818,8 +4849,8 @@
       <c r="L22" s="79"/>
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="103"/>
+      <c r="O22" s="106"/>
+      <c r="P22" s="107"/>
       <c r="Q22" s="19"/>
     </row>
     <row r="23" spans="1:17" ht="17.25" customHeight="1">
@@ -4839,11 +4870,11 @@
       <c r="L23" s="79"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="96">
+      <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>5.8823529411764705E-2</v>
-      </c>
-      <c r="P23" s="97"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
     </row>
     <row r="24" spans="1:17" ht="17.25" customHeight="1">
@@ -4857,7 +4888,9 @@
       <c r="D24" s="78">
         <v>2</v>
       </c>
-      <c r="E24" s="78"/>
+      <c r="E24" s="78">
+        <v>0</v>
+      </c>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
@@ -4867,8 +4900,8 @@
       <c r="L24" s="79"/>
       <c r="M24" s="17"/>
       <c r="N24" s="17"/>
-      <c r="O24" s="96"/>
-      <c r="P24" s="97"/>
+      <c r="O24" s="100"/>
+      <c r="P24" s="101"/>
       <c r="Q24" s="19"/>
     </row>
     <row r="25" spans="1:17" ht="17.25" customHeight="1" thickBot="1">
@@ -4878,15 +4911,15 @@
       </c>
       <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="13">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D25" s="75">
         <f t="shared" si="13"/>
+        <v>-1</v>
+      </c>
+      <c r="E25" s="75">
+        <f t="shared" si="13"/>
         <v>0</v>
-      </c>
-      <c r="E25" s="75" t="str">
-        <f t="shared" si="13"/>
-        <v/>
       </c>
       <c r="F25" s="75" t="str">
         <f t="shared" si="13"/>
@@ -4918,8 +4951,8 @@
       </c>
       <c r="M25" s="17"/>
       <c r="N25" s="17"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="99"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="103"/>
       <c r="Q25" s="19"/>
     </row>
     <row r="26" spans="1:17" ht="17.25" customHeight="1">

--- a/designmanual/Webravo Scrum Burndown.xlsx
+++ b/designmanual/Webravo Scrum Burndown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/webravo/designmanual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700AB84F-804F-4342-B124-151407EDB907}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B0FCC2-4056-F44F-8935-555B480E7282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="480" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Example" sheetId="2" r:id="rId1"/>
@@ -1153,14 +1153,14 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1325,19 +1325,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1533,10 +1533,10 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>120</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -4137,8 +4137,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="119" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4306,7 +4306,7 @@
       <c r="L7" s="16"/>
       <c r="M7" s="17"/>
       <c r="N7" s="17"/>
-      <c r="O7" s="120">
+      <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
         <v>3</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="L8" s="16"/>
       <c r="M8" s="17"/>
       <c r="N8" s="17"/>
-      <c r="O8" s="120"/>
+      <c r="O8" s="122"/>
       <c r="P8" s="84" t="s">
         <v>57</v>
       </c>
@@ -4366,7 +4366,7 @@
       <c r="L9" s="65"/>
       <c r="M9" s="17"/>
       <c r="N9" s="17"/>
-      <c r="O9" s="120"/>
+      <c r="O9" s="122"/>
       <c r="P9" s="85"/>
       <c r="Q9" s="81"/>
     </row>
@@ -4377,23 +4377,23 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>160</v>
       </c>
       <c r="G10" s="77">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="17"/>
-      <c r="O12" s="121">
+      <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
         <v>120</v>
       </c>
@@ -4544,12 +4544,8 @@
       <c r="E13" s="89">
         <v>27</v>
       </c>
-      <c r="F13" s="89">
-        <v>0</v>
-      </c>
-      <c r="G13" s="89">
-        <v>0</v>
-      </c>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89"/>
       <c r="J13" s="89"/>
@@ -4557,7 +4553,7 @@
       <c r="L13" s="89"/>
       <c r="M13" s="17"/>
       <c r="N13" s="17"/>
-      <c r="O13" s="121"/>
+      <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
         <v>122</v>
@@ -4581,13 +4577,13 @@
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
-      <c r="F14" s="87">
+      <c r="F14" s="87" t="e">
         <f t="shared" si="10"/>
-        <v>120</v>
-      </c>
-      <c r="G14" s="87">
+        <v>#N/A</v>
+      </c>
+      <c r="G14" s="87" t="e">
         <f>IF(LEN(G13)&gt;0,IF(LEN(G9)&gt;0,F14+G13,NA()),NA())</f>
-        <v>120</v>
+        <v>#N/A</v>
       </c>
       <c r="H14" s="87" t="e">
         <f t="shared" ref="H14:L14" si="11">IF(LEN(H13)&gt;0,IF(LEN(H9)&gt;0,G14+H13,NA()),NA())</f>
@@ -4611,7 +4607,7 @@
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="17"/>
-      <c r="O14" s="122"/>
+      <c r="O14" s="121"/>
       <c r="P14" s="93"/>
       <c r="Q14" s="82"/>
     </row>
@@ -4652,7 +4648,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="70" t="str">
-        <f t="shared" ref="E16:L16" si="12">IF(SUM(F17:F24)&gt;0,F9,"")</f>
+        <f t="shared" ref="F16:L16" si="12">IF(SUM(F17:F24)&gt;0,F9,"")</f>
         <v/>
       </c>
       <c r="G16" s="70" t="str">

--- a/designmanual/Webravo Scrum Burndown.xlsx
+++ b/designmanual/Webravo Scrum Burndown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/webravo/designmanual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B0FCC2-4056-F44F-8935-555B480E7282}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DC3C62-F772-1940-B2F5-AADB650208BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20" yWindow="480" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,19 +1325,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>31.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>80</c:v>
+                  <c:v>62.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>93.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>160</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>200</c:v>
+                  <c:v>156.25</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1419,19 +1419,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>24.4</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>48.8</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.199999999999989</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>97.6</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>122</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1533,7 +1533,7 @@
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1815,7 +1815,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1824,6 +1824,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1841,7 +1844,10 @@
                   <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42</c:v>
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +1888,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1891,6 +1897,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1949,7 +1958,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1958,6 +1967,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1975,6 +1987,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4137,8 +4152,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Q28"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4245,7 +4260,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4308,7 +4323,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4377,23 +4392,23 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>40</v>
+        <v>31.25</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>80</v>
+        <v>62.5</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>93.75</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="G10" s="77">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>156.25</v>
       </c>
       <c r="H10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4430,23 +4445,23 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>24.4</v>
+        <v>25</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>48.8</v>
+        <v>50</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>73.199999999999989</v>
+        <v>75</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>97.6</v>
+        <v>100</v>
       </c>
       <c r="G11" s="77">
         <f t="shared" si="2"/>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4481,23 +4496,23 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="77">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" s="77" t="e">
         <f t="shared" ref="H12" si="8">IF(H9&gt;0,IF(H13=0,G12,$C5-H14),NA())</f>
@@ -4523,7 +4538,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4544,7 +4559,9 @@
       <c r="E13" s="89">
         <v>27</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="89">
+        <v>5</v>
+      </c>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89"/>
@@ -4556,7 +4573,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4577,9 +4594,9 @@
         <f t="shared" si="10"/>
         <v>120</v>
       </c>
-      <c r="F14" s="87" t="e">
+      <c r="F14" s="87">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>125</v>
       </c>
       <c r="G14" s="87" t="e">
         <f>IF(LEN(G13)&gt;0,IF(LEN(G9)&gt;0,F14+G13,NA()),NA())</f>
@@ -4647,12 +4664,11 @@
       <c r="E16" s="70">
         <v>3</v>
       </c>
-      <c r="F16" s="70" t="str">
-        <f t="shared" ref="F16:L16" si="12">IF(SUM(F17:F24)&gt;0,F9,"")</f>
-        <v/>
+      <c r="F16" s="70">
+        <v>4</v>
       </c>
       <c r="G16" s="70" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="F16:L16" si="12">IF(SUM(G17:G24)&gt;0,G9,"")</f>
         <v/>
       </c>
       <c r="H16" s="70" t="str">
@@ -4695,9 +4711,11 @@
         <v>34</v>
       </c>
       <c r="E17" s="78">
-        <v>42</v>
-      </c>
-      <c r="F17" s="78"/>
+        <v>41</v>
+      </c>
+      <c r="F17" s="78">
+        <v>43</v>
+      </c>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
@@ -4737,7 +4755,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4758,9 +4776,11 @@
         <v>5</v>
       </c>
       <c r="E19" s="78">
+        <v>1</v>
+      </c>
+      <c r="F19" s="78">
         <v>0</v>
       </c>
-      <c r="F19" s="78"/>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
       <c r="I19" s="78"/>
@@ -4792,7 +4812,9 @@
       <c r="E20" s="78">
         <v>1</v>
       </c>
-      <c r="F20" s="78"/>
+      <c r="F20" s="78">
+        <v>0</v>
+      </c>
       <c r="G20" s="78"/>
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
@@ -4868,7 +4890,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>7.1428571428571425E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
@@ -4917,9 +4939,9 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="F25" s="75" t="str">
+      <c r="F25" s="75">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G25" s="75" t="str">
         <f t="shared" si="13"/>
